--- a/Electrical/Fusebox.xlsx
+++ b/Electrical/Fusebox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Skåtun\Documents\GitHub\klubben\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prototechno-my.sharepoint.com/personal/kim_skatun_prototech_no/Documents/Documents/GitHub/klubben/Electrical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{155840A5-7B70-4870-9874-5059B5E42ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{155840A5-7B70-4870-9874-5059B5E42ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C873E4-4FE6-4D36-8457-6958C2D596E7}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{C7F6339A-549F-4F07-AA37-45BE6E452E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7F6339A-549F-4F07-AA37-45BE6E452E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -301,6 +301,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{640BAD51-74E7-4A04-819B-5FBEEF6699A5}" name="Tabell1" displayName="Tabell1" ref="A1:F36" totalsRowShown="0">
   <autoFilter ref="A1:F36" xr:uid="{640BAD51-74E7-4A04-819B-5FBEEF6699A5}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="16"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Light"/>
@@ -623,7 +628,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,7 +1078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>

--- a/Electrical/Fusebox.xlsx
+++ b/Electrical/Fusebox.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prototechno-my.sharepoint.com/personal/kim_skatun_prototech_no/Documents/Documents/GitHub/klubben/Electrical/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prototechno-my.sharepoint.com/personal/kim_skatun_claraventurelabs_com/Documents/Documents/GitHub/klubben/Electrical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{155840A5-7B70-4870-9874-5059B5E42ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C873E4-4FE6-4D36-8457-6958C2D596E7}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="106_{3304EA12-EC9C-4114-8CC4-D4005F0B80DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA61D54-FEA0-4942-8FB5-E2FEA7E4C710}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7F6339A-549F-4F07-AA37-45BE6E452E68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C7F6339A-549F-4F07-AA37-45BE6E452E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId2"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
   <si>
     <t>light next to beam</t>
   </si>
@@ -196,13 +198,295 @@
   </si>
   <si>
     <t>Supply BIG Bedroom</t>
+  </si>
+  <si>
+    <t>Rear speaker Left</t>
+  </si>
+  <si>
+    <t>Rear speaker Right</t>
+  </si>
+  <si>
+    <t>Outdoor light South</t>
+  </si>
+  <si>
+    <t>Outdoor outlet south</t>
+  </si>
+  <si>
+    <t>Winch ceiling</t>
+  </si>
+  <si>
+    <t>Ceiling lamp east</t>
+  </si>
+  <si>
+    <t>LIVING ROOM</t>
+  </si>
+  <si>
+    <t>Outlets living room</t>
+  </si>
+  <si>
+    <t>HDMI</t>
+  </si>
+  <si>
+    <t>Front speaker left</t>
+  </si>
+  <si>
+    <t>Front speaker right</t>
+  </si>
+  <si>
+    <t>Stair lights</t>
+  </si>
+  <si>
+    <t>SUM16</t>
+  </si>
+  <si>
+    <t>SUM20</t>
+  </si>
+  <si>
+    <t>16MM/20MM</t>
+  </si>
+  <si>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old heating cable </t>
+  </si>
+  <si>
+    <t>OLD HEATING</t>
+  </si>
+  <si>
+    <t>Outlet kitchen</t>
+  </si>
+  <si>
+    <t>Switch panel</t>
+  </si>
+  <si>
+    <t>Heating cable kitchen</t>
+  </si>
+  <si>
+    <t>Heating cable living room</t>
+  </si>
+  <si>
+    <t>Kitchen ceiling lamp</t>
+  </si>
+  <si>
+    <t>Kitchen down light</t>
+  </si>
+  <si>
+    <t>Oven</t>
+  </si>
+  <si>
+    <t>Oven top</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>Dish washer</t>
+  </si>
+  <si>
+    <t>Micro wave</t>
+  </si>
+  <si>
+    <t>Heat pump</t>
+  </si>
+  <si>
+    <t>Downlights Sofa</t>
+  </si>
+  <si>
+    <t>Downlights Kitchen</t>
+  </si>
+  <si>
+    <t>wardrobe bedroom</t>
+  </si>
+  <si>
+    <t>light below stairs</t>
+  </si>
+  <si>
+    <t>outlet below stairs</t>
+  </si>
+  <si>
+    <t>12mm+25mm</t>
+  </si>
+  <si>
+    <t>master ¨bedroom</t>
+  </si>
+  <si>
+    <t>sov 1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>gang</t>
+  </si>
+  <si>
+    <t>vaskerom</t>
+  </si>
+  <si>
+    <t>stikk gang vaskerom</t>
+  </si>
+  <si>
+    <t>garasje</t>
+  </si>
+  <si>
+    <t>utekontakt</t>
+  </si>
+  <si>
+    <t>varmekabler bad old</t>
+  </si>
+  <si>
+    <t>vvb/vaskemaskim</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>data center</t>
+  </si>
+  <si>
+    <t>frå fusebox</t>
+  </si>
+  <si>
+    <t>til fusebox</t>
+  </si>
+  <si>
+    <t>ut til wifi extender</t>
+  </si>
+  <si>
+    <t>kai/lekehus</t>
+  </si>
+  <si>
+    <t>pergola</t>
+  </si>
+  <si>
+    <t>data north</t>
+  </si>
+  <si>
+    <t>frå Tombre</t>
+  </si>
+  <si>
+    <t>til datacenter</t>
+  </si>
+  <si>
+    <t>til kai</t>
+  </si>
+  <si>
+    <t>til lekhus</t>
+  </si>
+  <si>
+    <t>til pergola</t>
+  </si>
+  <si>
+    <t>data south</t>
+  </si>
+  <si>
+    <t>enkel boks</t>
+  </si>
+  <si>
+    <t>enkel big boks</t>
+  </si>
+  <si>
+    <t>power center</t>
+  </si>
+  <si>
+    <t>til sonoff dual</t>
+  </si>
+  <si>
+    <t>utelys nord</t>
+  </si>
+  <si>
+    <t>utelys sør</t>
+  </si>
+  <si>
+    <t>spotter centre</t>
+  </si>
+  <si>
+    <t>spotter heading south</t>
+  </si>
+  <si>
+    <t>spotter heading north</t>
+  </si>
+  <si>
+    <t>Kan eventuelt ikkje ha dissse I trekkerør og berre 1 ledning ut</t>
+  </si>
+  <si>
+    <t>power center 2</t>
+  </si>
+  <si>
+    <t>til utestikk</t>
+  </si>
+  <si>
+    <t>til lekhus/kai</t>
+  </si>
+  <si>
+    <t>power lekehus</t>
+  </si>
+  <si>
+    <t>power pergola</t>
+  </si>
+  <si>
+    <t>pergola power</t>
+  </si>
+  <si>
+    <t>pergola lys</t>
+  </si>
+  <si>
+    <t>lekehus tilførsel</t>
+  </si>
+  <si>
+    <t>kai tilførsel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM </t>
+  </si>
+  <si>
+    <t>7 lokk</t>
+  </si>
+  <si>
+    <t>1 skjøtemuffe</t>
+  </si>
+  <si>
+    <t>3 bokser I center</t>
+  </si>
+  <si>
+    <t>2 bokser nord</t>
+  </si>
+  <si>
+    <t>2 bokser sør</t>
+  </si>
+  <si>
+    <t>til sonoff dual frå fuseboks</t>
+  </si>
+  <si>
+    <t>frå fusebox til utestikk</t>
+  </si>
+  <si>
+    <t>frå fuseboks til south</t>
+  </si>
+  <si>
+    <t>frå fuseboks til north</t>
+  </si>
+  <si>
+    <t>5 big boks</t>
+  </si>
+  <si>
+    <t>2 enkel boks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +500,45 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,16 +550,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dårlig" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -299,22 +625,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{640BAD51-74E7-4A04-819B-5FBEEF6699A5}" name="Tabell1" displayName="Tabell1" ref="A1:F36" totalsRowShown="0">
-  <autoFilter ref="A1:F36" xr:uid="{640BAD51-74E7-4A04-819B-5FBEEF6699A5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="16"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{640BAD51-74E7-4A04-819B-5FBEEF6699A5}" name="Tabell1" displayName="Tabell1" ref="A8:F72" totalsRowShown="0">
+  <autoFilter ref="A8:F72" xr:uid="{640BAD51-74E7-4A04-819B-5FBEEF6699A5}">
     <filterColumn colId="3">
-      <filters>
+      <filters blank="1">
         <filter val="Light"/>
+        <filter val="OLD HEATING"/>
         <filter val="Power"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="WEST"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F32">
-    <sortCondition ref="C1:C36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F39">
+    <sortCondition ref="C8:C43"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{477E31FB-606D-4411-A05A-9D40211A6F9E}" name="DESCRIPTION" dataDxfId="1"/>
@@ -625,185 +952,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB152472-7074-4E2E-A552-D4D50692C918}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="B1">
+        <f>SUMIF(Tabell1[SIZE],16)/16</f>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="D1">
+        <f>SUMIF(Tabell1[SIZE],20)/20</f>
+        <v>33</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>SUMIFS(Tabell1[SIZE],Tabell1[Connection Fuesebox],A3,Tabell1[SIZE],16)/16</f>
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <f>SUMIFS(Tabell1[SIZE],Tabell1[Connection Fuesebox],A3,Tabell1[SIZE],20)/20</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="7">
+        <f>SUMIFS(Tabell1[SIZE],Tabell1[Connection Fuesebox],C3,Tabell1[SIZE],16)/16</f>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUMIFS(Tabell1[SIZE],Tabell1[Connection Fuesebox],C3,Tabell1[SIZE],20)/20</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <f>SUMIFS(Tabell1[SIZE],Tabell1[Connection Fuesebox],E3,Tabell1[SIZE],16)/16</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <f>SUMIFS(Tabell1[SIZE],Tabell1[Connection Fuesebox],E3,Tabell1[SIZE],20)/20</f>
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="K4">
+        <f>A4+C4+E4</f>
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <f>B4+D4+F4</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="K6">
+        <f>A6+C6+E6</f>
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <f>B6+D6+F6</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>66579.899999999994</v>
+      </c>
+      <c r="I8">
+        <f>H8*12</f>
+        <v>798958.79999999993</v>
+      </c>
+      <c r="J8">
+        <f>I8*1.05</f>
+        <v>838906.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -815,15 +1148,15 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -835,95 +1168,95 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -932,98 +1265,98 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1035,35 +1368,35 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -1072,61 +1405,61 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1135,135 +1468,135 @@
         <v>52</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>20</v>
@@ -1275,75 +1608,75 @@
         <v>52</v>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
       </c>
       <c r="F34">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>20</v>
@@ -1355,7 +1688,649 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>19</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1365,4 +2340,554 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84128C63-ECED-4B05-8E6F-296D0ABB7C26}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f>SUM(F10:F40)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418266EA-0000-484C-8605-07CAE9B5B31B}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>